--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_143.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,694 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0573386224305806</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E', 'A', 'D'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[('0:00:54.526825', '0:01:01.516031'), ('0:00:52.750498', '0:00:59.809365')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:38.435396', '0:00:43.311587'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:56.280000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:27.460000', '0:00:36.020000'), ('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:34.800000', '0:01:46.960000'), ('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4583333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[['A', 'E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:27.963197', '0:00:40.095623')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.910022', '0:01:09.517005')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(90.78, 113.6)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[['E', 'E/7', 'C#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[('0:00:08.280000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:10.501791', '0:00:15.122562')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'E:7/A', 'A:min', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(23.28, 33.6)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.26, 12.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
